--- a/medicine/Sexualité et sexologie/WAP_(chanson)/WAP_(chanson).xlsx
+++ b/medicine/Sexualité et sexologie/WAP_(chanson)/WAP_(chanson).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">WAP, acronyme de Wet Ass Pussy, est une chanson interprétée par les  rappeuses américaines Cardi B et Megan Thee Stallion. La chanson est sortie aux États-Unis sur le label Atlantic Records le 7 août 2020, en tant que single du second album studio de la chanteuse[1]. La mélodie est basée sur un sample de la chanson Whores in This House du DJ américain Frank Ski (en) sorti en 1993. La chanson, aux paroles explicites, aborde le thème du cunnilingus, du plaisir féminin, et plus généralement la façon dont Cardi B et Megan Thee Stallion aimeraient être sexuellement satisfaites par les hommes[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WAP, acronyme de Wet Ass Pussy, est une chanson interprétée par les  rappeuses américaines Cardi B et Megan Thee Stallion. La chanson est sortie aux États-Unis sur le label Atlantic Records le 7 août 2020, en tant que single du second album studio de la chanteuse. La mélodie est basée sur un sample de la chanson Whores in This House du DJ américain Frank Ski (en) sorti en 1993. La chanson, aux paroles explicites, aborde le thème du cunnilingus, du plaisir féminin, et plus généralement la façon dont Cardi B et Megan Thee Stallion aimeraient être sexuellement satisfaites par les hommes.
 Le clip est censuré dans plusieurs pays en raison des scènes à caractère sexuel répétées, du thème de la vidéo, et de la "vulgarité" accrue qui y est présentée. Il l’est notamment en France, qui le diffuse en version floutée avec une signalétique -10 sur certaines chaînes en fin de journée, ou alors diffusé tard le soir, après 23h sur d’autres avec une signalétique -12 et sans aucun floutage. Sur la chaîne MCM, il est seulement diffusé la nuit sans aucune signalétique.
 </t>
         </is>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
